--- a/tests/for_concat/for_func2_extract_template_info/样表1_无数据.xlsx
+++ b/tests/for_concat/for_func2_extract_template_info/样表1_无数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7670"/>
+    <workbookView windowWidth="21438" windowHeight="11577"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +178,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -652,48 +651,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,101 +705,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,6 +811,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,44 +1168,44 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="11.2545454545455" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="11.256880733945" customWidth="1"/>
+    <col min="2" max="2" width="8.5045871559633" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="19.2545454545455" customWidth="1"/>
-    <col min="6" max="6" width="14.7545454545455" customWidth="1"/>
-    <col min="7" max="7" width="17.2545454545455" customWidth="1"/>
+    <col min="5" max="5" width="19.256880733945" customWidth="1"/>
+    <col min="6" max="6" width="14.7522935779817" customWidth="1"/>
+    <col min="7" max="7" width="17.256880733945" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="4.83636363636364" customWidth="1"/>
-    <col min="11" max="11" width="10.3363636363636" customWidth="1"/>
-    <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="12.3363636363636" customWidth="1"/>
-    <col min="14" max="14" width="30.0818181818182" customWidth="1"/>
-    <col min="15" max="15" width="4.83636363636364" customWidth="1"/>
-    <col min="16" max="16" width="9.08181818181818" customWidth="1"/>
+    <col min="9" max="9" width="15.5045871559633" customWidth="1"/>
+    <col min="10" max="10" width="4.8348623853211" customWidth="1"/>
+    <col min="11" max="11" width="10.3394495412844" customWidth="1"/>
+    <col min="12" max="12" width="8.5045871559633" customWidth="1"/>
+    <col min="13" max="13" width="12.3394495412844" customWidth="1"/>
+    <col min="14" max="14" width="30.0825688073394" customWidth="1"/>
+    <col min="15" max="15" width="4.8348623853211" customWidth="1"/>
+    <col min="16" max="16" width="9.08256880733945" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="19" width="12.3363636363636" customWidth="1"/>
-    <col min="20" max="20" width="22.0818181818182" customWidth="1"/>
-    <col min="21" max="21" width="18.2545454545455" customWidth="1"/>
-    <col min="22" max="22" width="12.3363636363636" customWidth="1"/>
-    <col min="23" max="23" width="8.5" customWidth="1"/>
-    <col min="24" max="24" width="30.0818181818182" customWidth="1"/>
-    <col min="25" max="25" width="22.0818181818182" customWidth="1"/>
-    <col min="26" max="26" width="14.3363636363636" customWidth="1"/>
-    <col min="27" max="27" width="71.0818181818182" customWidth="1"/>
-    <col min="28" max="28" width="13.3363636363636" customWidth="1"/>
-    <col min="29" max="29" width="27.7545454545455" customWidth="1"/>
-    <col min="30" max="30" width="25.8363636363636" customWidth="1"/>
-    <col min="31" max="31" width="8.5" customWidth="1"/>
-    <col min="32" max="32" width="12.3363636363636" customWidth="1"/>
+    <col min="18" max="18" width="8.5045871559633" customWidth="1"/>
+    <col min="19" max="19" width="12.3394495412844" customWidth="1"/>
+    <col min="20" max="20" width="22.0825688073394" customWidth="1"/>
+    <col min="21" max="21" width="18.256880733945" customWidth="1"/>
+    <col min="22" max="22" width="12.3394495412844" customWidth="1"/>
+    <col min="23" max="23" width="8.5045871559633" customWidth="1"/>
+    <col min="24" max="24" width="30.0825688073394" customWidth="1"/>
+    <col min="25" max="25" width="22.0825688073394" customWidth="1"/>
+    <col min="26" max="26" width="14.3394495412844" customWidth="1"/>
+    <col min="27" max="27" width="71.0825688073395" customWidth="1"/>
+    <col min="28" max="28" width="13.3394495412844" customWidth="1"/>
+    <col min="29" max="29" width="27.7522935779816" customWidth="1"/>
+    <col min="30" max="30" width="25.8348623853211" customWidth="1"/>
+    <col min="31" max="31" width="8.5045871559633" customWidth="1"/>
+    <col min="32" max="32" width="12.3394495412844" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="27.7545454545455" customWidth="1"/>
+    <col min="34" max="34" width="27.7522935779816" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -1307,7 +1312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:34">
+    <row r="2" ht="55.3" spans="1:34">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1378,14 +1383,14 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="5"/>
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
